--- a/story_xlsx_files/43.xlsx
+++ b/story_xlsx_files/43.xlsx
@@ -12,12 +12,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>storyText</t>
   </si>
   <si>
-    <t>Grocery Shopping Meet Cute</t>
+    <t>locationEvent</t>
+  </si>
+  <si>
+    <t>socialEvent</t>
+  </si>
+  <si>
+    <t>Simon and Carina noticed each other as they walked into the grocery store at the same time, their carts nearly colliding as they squeezed into the entrance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They were both new to the Boston area, and this was their first time in this store. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It kind of looked like a large warehouse, with high unfurnished ceilings, industrial lights, and large packages of food. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They went off along separate routes, but soon ended up back together in the meat section. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They were both preparing for barbecues, so they were looking over the same cuts of ribs. </t>
+  </si>
+  <si>
+    <t>Simon really wanted to talk to Carina, and Carina really wanted to say something to Simon, but they felt embarrassed striking up a conversation with a stranger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carina suddenly turned to Simon and, pointing at a Cornish hen, asked, “Isn’t this meat cute?”</t>
+  </si>
+  <si>
+    <t>He laughed, and said, “It is very cute. Probably the younger brother of this guy,” and he picked up a regular-sized chicken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Unlucky family,” she responded. </t>
+  </si>
+  <si>
+    <t>They continued to chat as they picked out their groceries.</t>
+  </si>
+  <si>
+    <t>Simon helped Carina pick out the best ribs and his personal favorite barbeque sauce, and she helped him gather the  peppers, onions, and spices for a vegetable kabob she recommended.</t>
+  </si>
+  <si>
+    <t>When they were both finished shopping, they went to the checkout area.</t>
+  </si>
+  <si>
+    <t>Simon was disappointed to see that the lines were short, since he had been hoping for an excuse to spend more time with Carina.</t>
+  </si>
+  <si>
+    <t>They had really hit it off, and both of them could definitely see a future together despite having just met.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“So you haven’t been around the city much?” Simon asked. </t>
+  </si>
+  <si>
+    <t>“No, not really, I’ve mainly been working and setting up my apartment.”</t>
+  </si>
+  <si>
+    <t>Simon asked her, “Ok well, if you’d like I could pick you up next weekend, and we could go around Harvard Square and get dinner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There are a lot of great places around there, and it’s really nice during the summer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Harvard campus is also beautiful.” </t>
+  </si>
+  <si>
+    <t>Carina smiled, “I’d love to, that sounds great!”</t>
+  </si>
+  <si>
+    <t>She quickly entered her number in his phone, since they only had to wait a couple minutes in line.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Then it was her turn to check out with the cashier. </t>
+  </si>
+  <si>
+    <t>Simon, wanting to make a gesture of his affection, lifted up the divider on the conveyor belt and said to the cashier, “Actually these are together.</t>
+  </si>
+  <si>
+    <t>Carina, I’ve got it, I want to pay for this kind-of date we’ve had today.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carina blushed and laughed; she thought this was ridiculous but also very sweet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cashier rolled her eyes when they weren’t looking, and she scanned the rest of his items. </t>
+  </si>
+  <si>
+    <t>The total came to $120 and he paid with his credit card.</t>
+  </si>
+  <si>
+    <t>Carina thanked him, and they took the groceries and walked out.</t>
+  </si>
+  <si>
+    <t>As they were walking towards the exit, Carina reluctantly said goodbye, since she was running late for the barbeque she was hosting that afternoon.</t>
+  </si>
+  <si>
+    <t>They hugged and parted ways, stealing glances at each other as they both walked back to their cars.</t>
   </si>
 </sst>
 </file>
@@ -184,7 +277,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -197,10 +290,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -209,13 +305,19 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1300,7 +1402,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1316,205 +1418,520 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="4">
-        <v>43</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="32.05" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="2" ht="128.25" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="68.05" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="92.05" customHeight="1">
+      <c r="A4" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="80.05" customHeight="1">
+      <c r="A5" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="80.05" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="128.05" customHeight="1">
+      <c r="A7" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="80.05" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="104.05" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="32.05" customHeight="1">
+      <c r="A10" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="56.05" customHeight="1">
+      <c r="A11" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="152.05" customHeight="1">
+      <c r="A12" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="68.05" customHeight="1">
+      <c r="A13" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="116.05" customHeight="1">
+      <c r="A14" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="92.05" customHeight="1">
+      <c r="A15" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="56.05" customHeight="1">
+      <c r="A16" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="68.05" customHeight="1">
+      <c r="A17" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="104.05" customHeight="1">
+      <c r="A18" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="80.05" customHeight="1">
+      <c r="A19" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="44.05" customHeight="1">
+      <c r="A20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="44.05" customHeight="1">
+      <c r="A21" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="92.05" customHeight="1">
+      <c r="A22" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="44.05" customHeight="1">
+      <c r="A23" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B23" s="9">
+        <v>4</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="116.05" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="56.05" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9">
+        <v>4</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="68.05" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9">
+        <v>4</v>
+      </c>
+      <c r="C26" s="10">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="80.05" customHeight="1">
+      <c r="A27" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="B27" s="9">
+        <v>4</v>
+      </c>
+      <c r="C27" s="10">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="56.05" customHeight="1">
+      <c r="A28" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B28" s="9">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="56.05" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="128.05" customHeight="1">
+      <c r="A30" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B30" s="9">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10">
+        <v>4</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="80.05" customHeight="1">
+      <c r="A31" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10">
+        <v>4</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/43.xlsx
+++ b/story_xlsx_files/43.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>storyText</t>
   </si>
@@ -35,16 +35,19 @@
     <t xml:space="preserve">They went off along separate routes, but soon ended up back together in the meat section. </t>
   </si>
   <si>
-    <t xml:space="preserve">They were both preparing for barbecues, so they were looking over the same cuts of ribs. </t>
+    <t xml:space="preserve">They were both preparing for barbecues, so they were looking over the same cuts of meat. </t>
   </si>
   <si>
     <t>Simon really wanted to talk to Carina, and Carina really wanted to say something to Simon, but they felt embarrassed striking up a conversation with a stranger.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Carina suddenly turned to Simon and, pointing at a Cornish hen, asked, “Isn’t this meat cute?”</t>
-  </si>
-  <si>
-    <t>He laughed, and said, “It is very cute. Probably the younger brother of this guy,” and he picked up a regular-sized chicken.</t>
+    <t>Carina suddenly turned to Simon and, pointing at a Cornish hen, asked, “Isn’t this meat cute?”</t>
+  </si>
+  <si>
+    <t>He laughed, and said, “It is very cute.</t>
+  </si>
+  <si>
+    <t>Probably the younger brother of this guy,” and he picked up a regular-sized chicken.</t>
   </si>
   <si>
     <t xml:space="preserve">“Unlucky family,” she responded. </t>
@@ -62,37 +65,43 @@
     <t>Simon was disappointed to see that the lines were short, since he had been hoping for an excuse to spend more time with Carina.</t>
   </si>
   <si>
-    <t>They had really hit it off, and both of them could definitely see a future together despite having just met.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“So you haven’t been around the city much?” Simon asked. </t>
-  </si>
-  <si>
-    <t>“No, not really, I’ve mainly been working and setting up my apartment.”</t>
+    <t>They had real chemistry, and both of them could definitely see a future together despite having just met.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“So you haven’t been around the city much?”, Simon asked. </t>
+  </si>
+  <si>
+    <t>“No, not really.</t>
+  </si>
+  <si>
+    <t>I’ve mainly been working and setting up my apartment.”</t>
   </si>
   <si>
     <t>Simon asked her, “Ok well, if you’d like I could pick you up next weekend, and we could go around Harvard Square and get dinner.</t>
   </si>
   <si>
-    <t xml:space="preserve"> There are a lot of great places around there, and it’s really nice during the summer.</t>
+    <t>There are a lot of great places around there, and it’s really nice during the summer.</t>
   </si>
   <si>
     <t xml:space="preserve">The Harvard campus is also beautiful.” </t>
   </si>
   <si>
-    <t>Carina smiled, “I’d love to, that sounds great!”</t>
+    <t>Carina smiled, “I’d love to: that sounds great!”</t>
   </si>
   <si>
     <t>She quickly entered her number in his phone, since they only had to wait a couple minutes in line.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Then it was her turn to check out with the cashier. </t>
+    <t xml:space="preserve">Then it was her turn to check out with the cashier. </t>
   </si>
   <si>
     <t>Simon, wanting to make a gesture of his affection, lifted up the divider on the conveyor belt and said to the cashier, “Actually these are together.</t>
   </si>
   <si>
-    <t>Carina, I’ve got it, I want to pay for this kind-of date we’ve had today.”</t>
+    <t>Carina, I’ve got it.</t>
+  </si>
+  <si>
+    <t>This was kind-of a date today.”</t>
   </si>
   <si>
     <t xml:space="preserve">Carina blushed and laughed; she thought this was ridiculous but also very sweet. </t>
@@ -101,13 +110,13 @@
     <t xml:space="preserve">The cashier rolled her eyes when they weren’t looking, and she scanned the rest of his items. </t>
   </si>
   <si>
-    <t>The total came to $120 and he paid with his credit card.</t>
+    <t>The total came to $120, and he paid with his credit card.</t>
   </si>
   <si>
     <t>Carina thanked him, and they took the groceries and walked out.</t>
   </si>
   <si>
-    <t>As they were walking towards the exit, Carina reluctantly said goodbye, since she was running late for the barbeque she was hosting that afternoon.</t>
+    <t>As they were walking towards the exit, Carina reluctantly said goodbye since she was running late for the barbeque she was hosting that afternoon.</t>
   </si>
   <si>
     <t>They hugged and parted ways, stealing glances at each other as they both walked back to their cars.</t>
@@ -124,7 +133,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1402,7 +1411,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1410,7 +1419,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1534,7 +1549,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="104.05" customHeight="1">
+    <row r="9" ht="44.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>10</v>
       </c>
@@ -1549,7 +1564,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="32.05" customHeight="1">
+    <row r="10" ht="80.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>11</v>
       </c>
@@ -1564,7 +1579,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="56.05" customHeight="1">
+    <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>12</v>
       </c>
@@ -1579,7 +1594,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="152.05" customHeight="1">
+    <row r="12" ht="56.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>13</v>
       </c>
@@ -1594,12 +1609,12 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="68.05" customHeight="1">
+    <row r="13" ht="152.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>14</v>
       </c>
       <c r="B13" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
@@ -1609,7 +1624,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="116.05" customHeight="1">
+    <row r="14" ht="68.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>15</v>
       </c>
@@ -1624,7 +1639,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="92.05" customHeight="1">
+    <row r="15" ht="116.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>16</v>
       </c>
@@ -1639,7 +1654,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="56.05" customHeight="1">
+    <row r="16" ht="92.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>17</v>
       </c>
@@ -1654,7 +1669,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="68.05" customHeight="1">
+    <row r="17" ht="56.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>18</v>
       </c>
@@ -1669,7 +1684,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="104.05" customHeight="1">
+    <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>19</v>
       </c>
@@ -1677,14 +1692,14 @@
         <v>3</v>
       </c>
       <c r="C18" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="80.05" customHeight="1">
+    <row r="19" ht="56.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>20</v>
       </c>
@@ -1692,14 +1707,14 @@
         <v>3</v>
       </c>
       <c r="C19" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="44.05" customHeight="1">
+    <row r="20" ht="104.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>21</v>
       </c>
@@ -1714,7 +1729,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="44.05" customHeight="1">
+    <row r="21" ht="80.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>22</v>
       </c>
@@ -1729,7 +1744,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="92.05" customHeight="1">
+    <row r="22" ht="44.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>23</v>
       </c>
@@ -1749,7 +1764,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="10">
         <v>3</v>
@@ -1759,12 +1774,12 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="116.05" customHeight="1">
+    <row r="24" ht="92.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>25</v>
       </c>
       <c r="B24" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="10">
         <v>3</v>
@@ -1774,7 +1789,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="56.05" customHeight="1">
+    <row r="25" ht="44.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>26</v>
       </c>
@@ -1789,7 +1804,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="68.05" customHeight="1">
+    <row r="26" ht="116.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>27</v>
       </c>
@@ -1804,7 +1819,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="80.05" customHeight="1">
+    <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>28</v>
       </c>
@@ -1819,7 +1834,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="56.05" customHeight="1">
+    <row r="28" ht="32.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>29</v>
       </c>
@@ -1834,7 +1849,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="56.05" customHeight="1">
+    <row r="29" ht="68.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>30</v>
       </c>
@@ -1849,7 +1864,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="128.05" customHeight="1">
+    <row r="30" ht="80.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>31</v>
       </c>
@@ -1857,14 +1872,14 @@
         <v>4</v>
       </c>
       <c r="C30" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="80.05" customHeight="1">
+    <row r="31" ht="56.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>32</v>
       </c>
@@ -1872,35 +1887,53 @@
         <v>4</v>
       </c>
       <c r="C31" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="11"/>
+    <row r="32" ht="56.05" customHeight="1">
+      <c r="A32" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B32" s="9">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10">
+        <v>3</v>
+      </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="11"/>
+    <row r="33" ht="116.05" customHeight="1">
+      <c r="A33" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="B33" s="9">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4</v>
+      </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="11"/>
+    <row r="34" ht="80.05" customHeight="1">
+      <c r="A34" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -1933,6 +1966,33 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/43.xlsx
+++ b/story_xlsx_files/43.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>storyText</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>socialEvent</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <t>Simon and Carina noticed each other as they walked into the grocery store at the same time, their carts nearly colliding as they squeezed into the entrance.</t>
@@ -129,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -138,7 +141,12 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <b val="1"/>
@@ -147,7 +155,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -286,47 +300,38 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -350,6 +355,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -366,10 +372,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -398,14 +404,14 @@
     </a:clrScheme>
     <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Blank">
@@ -546,11 +552,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -559,33 +568,33 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -836,10 +845,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1130,7 +1139,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1154,9 +1163,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -1413,9 +1422,7 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1439,14 +1446,16 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="128.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1454,550 +1463,552 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="6">
+        <v>43</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" ht="68.05" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="A3" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" ht="92.05" customHeight="1">
+      <c r="A4" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="80.05" customHeight="1">
+      <c r="A5" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="80.05" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="128.05" customHeight="1">
+      <c r="A7" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" ht="80.05" customHeight="1">
+      <c r="A8" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" ht="44.05" customHeight="1">
+      <c r="A9" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" ht="80.05" customHeight="1">
+      <c r="A10" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" ht="32.05" customHeight="1">
+      <c r="A11" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" ht="56.05" customHeight="1">
+      <c r="A12" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" ht="152.05" customHeight="1">
+      <c r="A13" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" ht="68.05" customHeight="1">
+      <c r="A14" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" ht="116.05" customHeight="1">
+      <c r="A15" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" ht="92.05" customHeight="1">
+      <c r="A16" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" ht="56.05" customHeight="1">
+      <c r="A17" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" ht="56.05" customHeight="1">
+      <c r="A19" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="B19" s="8">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" ht="104.05" customHeight="1">
+      <c r="A20" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9">
+        <v>3</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" ht="80.05" customHeight="1">
+      <c r="A21" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9">
+        <v>3</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" ht="44.05" customHeight="1">
+      <c r="A22" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3</v>
+      </c>
+      <c r="C22" s="9">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" ht="44.05" customHeight="1">
+      <c r="A23" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="B23" s="8">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" ht="92.05" customHeight="1">
+      <c r="A24" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3</v>
+      </c>
+      <c r="C24" s="9">
+        <v>3</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" ht="44.05" customHeight="1">
+      <c r="A25" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="B25" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" ht="92.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" ht="80.05" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" ht="80.05" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="B6" s="9">
-        <v>2</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" ht="128.05" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" ht="80.05" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10">
-        <v>2</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" ht="44.05" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="10">
-        <v>2</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" ht="80.05" customHeight="1">
-      <c r="A10" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" ht="32.05" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" ht="56.05" customHeight="1">
-      <c r="A12" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9">
-        <v>2</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" ht="152.05" customHeight="1">
-      <c r="A13" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9">
-        <v>2</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" ht="68.05" customHeight="1">
-      <c r="A14" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9">
-        <v>3</v>
-      </c>
-      <c r="C14" s="10">
-        <v>2</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" ht="116.05" customHeight="1">
-      <c r="A15" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="B15" s="9">
-        <v>3</v>
-      </c>
-      <c r="C15" s="10">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" ht="92.05" customHeight="1">
-      <c r="A16" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="B16" s="9">
-        <v>3</v>
-      </c>
-      <c r="C16" s="10">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" ht="56.05" customHeight="1">
-      <c r="A17" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B17" s="9">
-        <v>3</v>
-      </c>
-      <c r="C17" s="10">
-        <v>2</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="B18" s="9">
-        <v>3</v>
-      </c>
-      <c r="C18" s="10">
-        <v>2</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" ht="56.05" customHeight="1">
-      <c r="A19" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9">
-        <v>3</v>
-      </c>
-      <c r="C19" s="10">
-        <v>2</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" ht="104.05" customHeight="1">
-      <c r="A20" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="B20" s="9">
-        <v>3</v>
-      </c>
-      <c r="C20" s="10">
-        <v>3</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" ht="80.05" customHeight="1">
-      <c r="A21" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="B21" s="9">
-        <v>3</v>
-      </c>
-      <c r="C21" s="10">
-        <v>3</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" ht="44.05" customHeight="1">
-      <c r="A22" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="B22" s="9">
-        <v>3</v>
-      </c>
-      <c r="C22" s="10">
-        <v>3</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" ht="44.05" customHeight="1">
-      <c r="A23" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="B23" s="9">
-        <v>3</v>
-      </c>
-      <c r="C23" s="10">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" ht="92.05" customHeight="1">
-      <c r="A24" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="B24" s="9">
-        <v>3</v>
-      </c>
-      <c r="C24" s="10">
-        <v>3</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" ht="44.05" customHeight="1">
-      <c r="A25" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="B25" s="9">
+      <c r="C25" s="9">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" ht="116.05" customHeight="1">
+      <c r="A26" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="B26" s="8">
         <v>4</v>
       </c>
-      <c r="C25" s="10">
-        <v>3</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" ht="116.05" customHeight="1">
-      <c r="A26" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="B26" s="9">
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="B27" s="8">
         <v>4</v>
       </c>
-      <c r="C26" s="10">
-        <v>3</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="B27" s="9">
+      <c r="C27" s="9">
+        <v>3</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" ht="32.05" customHeight="1">
+      <c r="A28" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="B28" s="8">
         <v>4</v>
       </c>
-      <c r="C27" s="10">
-        <v>3</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" ht="32.05" customHeight="1">
-      <c r="A28" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="B28" s="9">
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" ht="68.05" customHeight="1">
+      <c r="A29" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="B29" s="8">
         <v>4</v>
       </c>
-      <c r="C28" s="10">
-        <v>3</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" ht="68.05" customHeight="1">
-      <c r="A29" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="B29" s="9">
+      <c r="C29" s="9">
+        <v>3</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" ht="80.05" customHeight="1">
+      <c r="A30" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="B30" s="8">
         <v>4</v>
       </c>
-      <c r="C29" s="10">
-        <v>3</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" ht="80.05" customHeight="1">
-      <c r="A30" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="B30" s="9">
+      <c r="C30" s="9">
+        <v>3</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" ht="56.05" customHeight="1">
+      <c r="A31" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="B31" s="8">
         <v>4</v>
       </c>
-      <c r="C30" s="10">
-        <v>3</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" ht="56.05" customHeight="1">
-      <c r="A31" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="B31" s="9">
+      <c r="C31" s="9">
+        <v>3</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" ht="56.05" customHeight="1">
+      <c r="A32" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="B32" s="8">
         <v>4</v>
       </c>
-      <c r="C31" s="10">
-        <v>3</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" ht="56.05" customHeight="1">
-      <c r="A32" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="B32" s="9">
+      <c r="C32" s="9">
+        <v>3</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" ht="116.05" customHeight="1">
+      <c r="A33" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="B33" s="8">
         <v>4</v>
       </c>
-      <c r="C32" s="10">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" ht="116.05" customHeight="1">
-      <c r="A33" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="B33" s="9">
+      <c r="C33" s="9">
         <v>4</v>
       </c>
-      <c r="C33" s="10">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" ht="80.05" customHeight="1">
+      <c r="A34" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="B34" s="8">
         <v>4</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" ht="80.05" customHeight="1">
-      <c r="A34" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="B34" s="9">
+      <c r="C34" s="9">
         <v>4</v>
       </c>
-      <c r="C34" s="10">
-        <v>4</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/story_xlsx_files/43.xlsx
+++ b/story_xlsx_files/43.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>storyText</t>
   </si>
@@ -26,13 +26,16 @@
     <t>story</t>
   </si>
   <si>
-    <t>Simon and Carina noticed each other as they walked into the grocery store at the same time, their carts nearly colliding as they squeezed into the entrance.</t>
+    <t xml:space="preserve">Carina noticed Simon first as they walked into the grocery store at the same time, both distracted in thought. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She nearly dropped the keys she was holding. </t>
   </si>
   <si>
     <t xml:space="preserve">They were both new to the Boston area, and this was their first time in this store. </t>
   </si>
   <si>
-    <t xml:space="preserve">It kind of looked like a large warehouse, with high unfurnished ceilings, industrial lights, and large packages of food. </t>
+    <t xml:space="preserve">It kind of looked like a large warehouse, with high, black ceilings, industrial lights, and large packages of food. </t>
   </si>
   <si>
     <t xml:space="preserve">They went off along separate routes, but soon ended up back together in the meat section. </t>
@@ -56,16 +59,19 @@
     <t xml:space="preserve">“Unlucky family,” she responded. </t>
   </si>
   <si>
-    <t>They continued to chat as they picked out their groceries.</t>
-  </si>
-  <si>
-    <t>Simon helped Carina pick out the best ribs and his personal favorite barbeque sauce, and she helped him gather the  peppers, onions, and spices for a vegetable kabob she recommended.</t>
+    <t>They continued to chat as they picked out a few last-minute groceries.</t>
+  </si>
+  <si>
+    <t>Simon helped Carina select the best ribs and his personal favorite barbecue sauce, and she helped him gather red  peppers and spices for a vegetable kabob she recommended.</t>
   </si>
   <si>
     <t>When they were both finished shopping, they went to the checkout area.</t>
   </si>
   <si>
-    <t>Simon was disappointed to see that the lines were short, since he had been hoping for an excuse to spend more time with Carina.</t>
+    <t>Simon was disappointed to see that the lines were short, as he had been hoping for an excuse to spend more time with Carina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There were there lines open and they went to aisle 8. </t>
   </si>
   <si>
     <t>They had real chemistry, and both of them could definitely see a future together despite having just met.</t>
@@ -80,13 +86,10 @@
     <t>I’ve mainly been working and setting up my apartment.”</t>
   </si>
   <si>
-    <t>Simon asked her, “Ok well, if you’d like I could pick you up next weekend, and we could go around Harvard Square and get dinner.</t>
-  </si>
-  <si>
-    <t>There are a lot of great places around there, and it’s really nice during the summer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Harvard campus is also beautiful.” </t>
+    <t>Simon asked her, “Ok well, if you’d like next Saturday let’s tour around Harvard Square and get something to eat.</t>
+  </si>
+  <si>
+    <t>There are a lot of great places around there, and it’s really nice during the summer.”</t>
   </si>
   <si>
     <t>Carina smiled, “I’d love to: that sounds great!”</t>
@@ -113,13 +116,16 @@
     <t xml:space="preserve">The cashier rolled her eyes when they weren’t looking, and she scanned the rest of his items. </t>
   </si>
   <si>
-    <t>The total came to $120, and he paid with his credit card.</t>
+    <t>The total came to $52, and he paid with his credit card.</t>
   </si>
   <si>
     <t>Carina thanked him, and they took the groceries and walked out.</t>
   </si>
   <si>
-    <t>As they were walking towards the exit, Carina reluctantly said goodbye since she was running late for the barbeque she was hosting that afternoon.</t>
+    <t>As they were walking towards the exit, Carina checked her phone for the time.</t>
+  </si>
+  <si>
+    <t>Seeing that it was 4:30 pm, she reluctantly said goodbye since she was running late for the barbeque she was hosting that afternoon.</t>
   </si>
   <si>
     <t>They hugged and parted ways, stealing glances at each other as they both walked back to their cars.</t>
@@ -181,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -215,6 +221,51 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
         <color indexed="10"/>
       </bottom>
       <diagonal/>
@@ -300,7 +351,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -310,7 +361,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -322,6 +373,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -331,7 +385,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1420,19 +1492,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1466,543 +1532,573 @@
       <c r="D2" s="6">
         <v>43</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="68.05" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="128.25" customHeight="1">
+      <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="92.05" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="68.05" customHeight="1">
+      <c r="A4" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="14">
         <v>1</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="80.05" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" ht="92.05" customHeight="1">
+      <c r="A5" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" ht="80.05" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="A6" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="13">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="128.05" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" ht="80.05" customHeight="1">
+      <c r="A7" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14">
         <v>1</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="80.05" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" ht="128.05" customHeight="1">
+      <c r="A8" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="44.05" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" ht="80.05" customHeight="1">
+      <c r="A9" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="80.05" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="B9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="44.05" customHeight="1">
+      <c r="A10" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="B10" s="8">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="32.05" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="14">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" ht="80.05" customHeight="1">
+      <c r="A11" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="B11" s="8">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="56.05" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="B11" s="13">
+        <v>2</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" ht="32.05" customHeight="1">
+      <c r="A12" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="152.05" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="B12" s="13">
+        <v>2</v>
+      </c>
+      <c r="C12" s="14">
+        <v>2</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" ht="56.05" customHeight="1">
+      <c r="A13" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
-        <v>2</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="68.05" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="B13" s="13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" ht="152.05" customHeight="1">
+      <c r="A14" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="B14" s="8">
-        <v>3</v>
-      </c>
-      <c r="C14" s="9">
-        <v>2</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="116.05" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="B14" s="13">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" ht="68.05" customHeight="1">
+      <c r="A15" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="B15" s="8">
-        <v>3</v>
-      </c>
-      <c r="C15" s="9">
-        <v>2</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="92.05" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="B15" s="13">
+        <v>3</v>
+      </c>
+      <c r="C15" s="14">
+        <v>2</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" ht="116.05" customHeight="1">
+      <c r="A16" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="B16" s="8">
-        <v>3</v>
-      </c>
-      <c r="C16" s="9">
-        <v>2</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="56.05" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="B16" s="13">
+        <v>3</v>
+      </c>
+      <c r="C16" s="14">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" ht="116.05" customHeight="1">
+      <c r="A17" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="B17" s="8">
-        <v>3</v>
-      </c>
-      <c r="C17" s="9">
-        <v>2</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="B17" s="13">
+        <v>3</v>
+      </c>
+      <c r="C17" s="14">
+        <v>2</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" ht="92.05" customHeight="1">
+      <c r="A18" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="B18" s="8">
-        <v>3</v>
-      </c>
-      <c r="C18" s="9">
-        <v>2</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="B18" s="13">
+        <v>3</v>
+      </c>
+      <c r="C18" s="14">
+        <v>2</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" ht="56.05" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="A19" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="B19" s="8">
-        <v>3</v>
-      </c>
-      <c r="C19" s="9">
-        <v>2</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="104.05" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="B19" s="13">
+        <v>3</v>
+      </c>
+      <c r="C19" s="14">
+        <v>2</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="B20" s="8">
-        <v>3</v>
-      </c>
-      <c r="C20" s="9">
-        <v>3</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="80.05" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="B20" s="13">
+        <v>3</v>
+      </c>
+      <c r="C20" s="14">
+        <v>2</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" ht="56.05" customHeight="1">
+      <c r="A21" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="B21" s="8">
-        <v>3</v>
-      </c>
-      <c r="C21" s="9">
-        <v>3</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="44.05" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="B21" s="13">
+        <v>3</v>
+      </c>
+      <c r="C21" s="14">
+        <v>2</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" ht="104.05" customHeight="1">
+      <c r="A22" t="s" s="12">
         <v>24</v>
       </c>
-      <c r="B22" s="8">
-        <v>3</v>
-      </c>
-      <c r="C22" s="9">
-        <v>3</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" ht="44.05" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="B22" s="13">
+        <v>3</v>
+      </c>
+      <c r="C22" s="14">
+        <v>3</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" ht="80.05" customHeight="1">
+      <c r="A23" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="B23" s="8">
-        <v>3</v>
-      </c>
-      <c r="C23" s="9">
-        <v>3</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" ht="92.05" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="B23" s="13">
+        <v>3</v>
+      </c>
+      <c r="C23" s="14">
+        <v>3</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" ht="44.05" customHeight="1">
+      <c r="A24" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="B24" s="8">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9">
-        <v>3</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" ht="44.05" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="B24" s="13">
+        <v>3</v>
+      </c>
+      <c r="C24" s="14">
+        <v>3</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" ht="92.05" customHeight="1">
+      <c r="A25" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="13">
+        <v>3</v>
+      </c>
+      <c r="C25" s="14">
+        <v>3</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" ht="44.05" customHeight="1">
+      <c r="A26" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="B26" s="13">
         <v>4</v>
       </c>
-      <c r="C25" s="9">
-        <v>3</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" ht="116.05" customHeight="1">
-      <c r="A26" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="B26" s="8">
+      <c r="C26" s="14">
+        <v>3</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" ht="116.05" customHeight="1">
+      <c r="A27" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="B27" s="13">
         <v>4</v>
       </c>
-      <c r="C26" s="9">
-        <v>3</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="B27" s="8">
+      <c r="C27" s="14">
+        <v>3</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="B28" s="13">
         <v>4</v>
       </c>
-      <c r="C27" s="9">
-        <v>3</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" ht="32.05" customHeight="1">
-      <c r="A28" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="B28" s="8">
+      <c r="C28" s="14">
+        <v>3</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" ht="32.05" customHeight="1">
+      <c r="A29" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="B29" s="13">
         <v>4</v>
       </c>
-      <c r="C28" s="9">
-        <v>3</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" ht="68.05" customHeight="1">
-      <c r="A29" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="B29" s="8">
+      <c r="C29" s="14">
+        <v>3</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" ht="68.05" customHeight="1">
+      <c r="A30" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="B30" s="13">
         <v>4</v>
       </c>
-      <c r="C29" s="9">
-        <v>3</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" ht="80.05" customHeight="1">
-      <c r="A30" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="B30" s="8">
+      <c r="C30" s="14">
+        <v>3</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" ht="80.05" customHeight="1">
+      <c r="A31" t="s" s="12">
+        <v>33</v>
+      </c>
+      <c r="B31" s="13">
         <v>4</v>
       </c>
-      <c r="C30" s="9">
-        <v>3</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" ht="56.05" customHeight="1">
-      <c r="A31" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="B31" s="8">
+      <c r="C31" s="14">
+        <v>3</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" ht="56.05" customHeight="1">
+      <c r="A32" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="B32" s="13">
         <v>4</v>
       </c>
-      <c r="C31" s="9">
-        <v>3</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" ht="56.05" customHeight="1">
-      <c r="A32" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="B32" s="8">
+      <c r="C32" s="14">
+        <v>3</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" ht="56.05" customHeight="1">
+      <c r="A33" t="s" s="12">
+        <v>35</v>
+      </c>
+      <c r="B33" s="13">
         <v>4</v>
       </c>
-      <c r="C32" s="9">
-        <v>3</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" ht="116.05" customHeight="1">
-      <c r="A33" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="B33" s="8">
+      <c r="C33" s="14">
+        <v>3</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" ht="116.05" customHeight="1">
+      <c r="A34" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="B34" s="13">
         <v>4</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C34" s="14">
+        <v>3</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" ht="116.05" customHeight="1">
+      <c r="A35" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="B35" s="13">
         <v>4</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" ht="80.05" customHeight="1">
-      <c r="A34" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="B34" s="8">
+      <c r="C35" s="14">
         <v>4</v>
       </c>
-      <c r="C34" s="9">
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" ht="80.05" customHeight="1">
+      <c r="A36" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="B36" s="13">
         <v>4</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="C36" s="14">
+        <v>4</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/43.xlsx
+++ b/story_xlsx_files/43.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>storyText</t>
   </si>
@@ -26,28 +26,22 @@
     <t>story</t>
   </si>
   <si>
-    <t xml:space="preserve">Carina noticed Simon first as they walked into the grocery store at the same time, both distracted in thought. </t>
+    <t xml:space="preserve">Carina and Simon, both distracted in thought, nearly ran into each other as they walked into the grocery store. </t>
   </si>
   <si>
     <t xml:space="preserve">She nearly dropped the keys she was holding. </t>
   </si>
   <si>
-    <t xml:space="preserve">They were both new to the Boston area, and this was their first time in this store. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It kind of looked like a large warehouse, with high, black ceilings, industrial lights, and large packages of food. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">They went off along separate routes, but soon ended up back together in the meat section. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">They were both preparing for barbecues, so they were looking over the same cuts of meat. </t>
-  </si>
-  <si>
-    <t>Simon really wanted to talk to Carina, and Carina really wanted to say something to Simon, but they felt embarrassed striking up a conversation with a stranger.</t>
-  </si>
-  <si>
-    <t>Carina suddenly turned to Simon and, pointing at a Cornish hen, asked, “Isn’t this meat cute?”</t>
+    <t xml:space="preserve">The store they had entered looked like a warehouse, with high, black ceilings, industrial lights, and large packages of food. </t>
+  </si>
+  <si>
+    <t>In the meat section, Carina and Simon were looking over the same cuts of meat, because they were both preparing for barbecues.</t>
+  </si>
+  <si>
+    <t>Simon had wanted to talk to Carina, and Carina had wanted to say something to Simon, but they felt embarrassed striking up a conversation with a stranger.</t>
+  </si>
+  <si>
+    <t>Carina mustered the courage, turned to Simon and, pointing at a Cornish hen, asked, “Isn’t this meat cute?”</t>
   </si>
   <si>
     <t>He laughed, and said, “It is very cute.</t>
@@ -56,7 +50,7 @@
     <t>Probably the younger brother of this guy,” and he picked up a regular-sized chicken.</t>
   </si>
   <si>
-    <t xml:space="preserve">“Unlucky family,” she responded. </t>
+    <t xml:space="preserve">“Unlucky family,” she responded as she shook her head. </t>
   </si>
   <si>
     <t>They continued to chat as they picked out a few last-minute groceries.</t>
@@ -65,28 +59,16 @@
     <t>Simon helped Carina select the best ribs and his personal favorite barbecue sauce, and she helped him gather red  peppers and spices for a vegetable kabob she recommended.</t>
   </si>
   <si>
-    <t>When they were both finished shopping, they went to the checkout area.</t>
-  </si>
-  <si>
-    <t>Simon was disappointed to see that the lines were short, as he had been hoping for an excuse to spend more time with Carina.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There were there lines open and they went to aisle 8. </t>
-  </si>
-  <si>
-    <t>They had real chemistry, and both of them could definitely see a future together despite having just met.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“So you haven’t been around the city much?”, Simon asked. </t>
-  </si>
-  <si>
-    <t>“No, not really.</t>
-  </si>
-  <si>
-    <t>I’ve mainly been working and setting up my apartment.”</t>
-  </si>
-  <si>
-    <t>Simon asked her, “Ok well, if you’d like next Saturday let’s tour around Harvard Square and get something to eat.</t>
+    <t xml:space="preserve">In the checkout area, there were there lines open and they went to aisle 8. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carina and Simon made jokes about the magazine covers waiting in line and they were laughing so hard their stomachs hurt. </t>
+  </si>
+  <si>
+    <t>Simon suddenly got serious and asked Carina, “Would you like to go out to dinner with me?</t>
+  </si>
+  <si>
+    <t>Next Saturday we could tour around Harvard Square and get something to eat.</t>
   </si>
   <si>
     <t>There are a lot of great places around there, and it’s really nice during the summer.”</t>
@@ -95,13 +77,10 @@
     <t>Carina smiled, “I’d love to: that sounds great!”</t>
   </si>
   <si>
-    <t>She quickly entered her number in his phone, since they only had to wait a couple minutes in line.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then it was her turn to check out with the cashier. </t>
-  </si>
-  <si>
-    <t>Simon, wanting to make a gesture of his affection, lifted up the divider on the conveyor belt and said to the cashier, “Actually these are together.</t>
+    <t>The cashier scanned Carina’s groceries.</t>
+  </si>
+  <si>
+    <t>Simon lifted up the divider on the conveyor belt and said to the cashier, “Actually, these are together.</t>
   </si>
   <si>
     <t>Carina, I’ve got it.</t>
@@ -119,16 +98,19 @@
     <t>The total came to $52, and he paid with his credit card.</t>
   </si>
   <si>
-    <t>Carina thanked him, and they took the groceries and walked out.</t>
-  </si>
-  <si>
-    <t>As they were walking towards the exit, Carina checked her phone for the time.</t>
-  </si>
-  <si>
-    <t>Seeing that it was 4:30 pm, she reluctantly said goodbye since she was running late for the barbeque she was hosting that afternoon.</t>
-  </si>
-  <si>
-    <t>They hugged and parted ways, stealing glances at each other as they both walked back to their cars.</t>
+    <t xml:space="preserve">Seeing that it was 4:30 pm on her phone, Carina gasped because she realized she was late for her own barbecue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carina thanked Simon and took her groceries and ran out the door. </t>
+  </si>
+  <si>
+    <t>The cashier and Simon looked at each other in astonishment.</t>
+  </si>
+  <si>
+    <t>“I hope her guests aren’t hungry,” the cashier remarked.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon just chuckled. </t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1474,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1551,7 +1533,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="68.05" customHeight="1">
+    <row r="4" ht="92.05" customHeight="1">
       <c r="A4" t="s" s="12">
         <v>6</v>
       </c>
@@ -1566,12 +1548,10 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" ht="92.05" customHeight="1">
-      <c r="A5" t="s" s="12">
-        <v>7</v>
-      </c>
+    <row r="5" ht="80.05" customHeight="1">
+      <c r="A5" s="12"/>
       <c r="B5" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -1583,7 +1563,7 @@
     </row>
     <row r="6" ht="80.05" customHeight="1">
       <c r="A6" t="s" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="13">
         <v>2</v>
@@ -1596,9 +1576,9 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" ht="80.05" customHeight="1">
+    <row r="7" ht="128.05" customHeight="1">
       <c r="A7" t="s" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="13">
         <v>2</v>
@@ -1611,24 +1591,24 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" ht="128.05" customHeight="1">
+    <row r="8" ht="80.05" customHeight="1">
       <c r="A8" t="s" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="13">
         <v>2</v>
       </c>
       <c r="C8" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" ht="80.05" customHeight="1">
+    <row r="9" ht="44.05" customHeight="1">
       <c r="A9" t="s" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="13">
         <v>2</v>
@@ -1641,9 +1621,9 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" ht="44.05" customHeight="1">
+    <row r="10" ht="80.05" customHeight="1">
       <c r="A10" t="s" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="13">
         <v>2</v>
@@ -1656,9 +1636,9 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" ht="80.05" customHeight="1">
+    <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="13">
         <v>2</v>
@@ -1671,9 +1651,9 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" ht="32.05" customHeight="1">
+    <row r="12" ht="56.05" customHeight="1">
       <c r="A12" t="s" s="12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="13">
         <v>2</v>
@@ -1686,9 +1666,9 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" ht="56.05" customHeight="1">
+    <row r="13" ht="152.05" customHeight="1">
       <c r="A13" t="s" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="13">
         <v>2</v>
@@ -1701,12 +1681,12 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" ht="152.05" customHeight="1">
+    <row r="14" ht="116.05" customHeight="1">
       <c r="A14" t="s" s="12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="14">
         <v>2</v>
@@ -1716,9 +1696,9 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" ht="68.05" customHeight="1">
+    <row r="15" ht="92.05" customHeight="1">
       <c r="A15" t="s" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="13">
         <v>3</v>
@@ -1731,102 +1711,102 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" ht="116.05" customHeight="1">
+    <row r="16" ht="92.05" customHeight="1">
       <c r="A16" t="s" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="13">
         <v>3</v>
       </c>
       <c r="C16" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" ht="116.05" customHeight="1">
+    <row r="17" ht="104.05" customHeight="1">
       <c r="A17" t="s" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="13">
         <v>3</v>
       </c>
       <c r="C17" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" ht="92.05" customHeight="1">
+    <row r="18" ht="80.05" customHeight="1">
       <c r="A18" t="s" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="13">
         <v>3</v>
       </c>
       <c r="C18" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" ht="56.05" customHeight="1">
+    <row r="19" ht="44.05" customHeight="1">
       <c r="A19" t="s" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="13">
         <v>3</v>
       </c>
       <c r="C19" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
+    <row r="20" ht="44.05" customHeight="1">
       <c r="A20" t="s" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="13">
+        <v>4</v>
+      </c>
+      <c r="C20" s="14">
         <v>3</v>
-      </c>
-      <c r="C20" s="14">
-        <v>2</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" ht="56.05" customHeight="1">
+    <row r="21" ht="116.05" customHeight="1">
       <c r="A21" t="s" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="13">
+        <v>4</v>
+      </c>
+      <c r="C21" s="14">
         <v>3</v>
-      </c>
-      <c r="C21" s="14">
-        <v>2</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" ht="104.05" customHeight="1">
+    <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="14">
         <v>3</v>
@@ -1836,12 +1816,12 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" ht="80.05" customHeight="1">
+    <row r="23" ht="32.05" customHeight="1">
       <c r="A23" t="s" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="14">
         <v>3</v>
@@ -1851,12 +1831,12 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" ht="44.05" customHeight="1">
+    <row r="24" ht="68.05" customHeight="1">
       <c r="A24" t="s" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="14">
         <v>3</v>
@@ -1866,12 +1846,12 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" ht="92.05" customHeight="1">
+    <row r="25" ht="80.05" customHeight="1">
       <c r="A25" t="s" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="14">
         <v>3</v>
@@ -1881,9 +1861,9 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" ht="44.05" customHeight="1">
+    <row r="26" ht="56.05" customHeight="1">
       <c r="A26" t="s" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="13">
         <v>4</v>
@@ -1896,209 +1876,125 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" ht="116.05" customHeight="1">
+    <row r="27" ht="56.05" customHeight="1">
       <c r="A27" t="s" s="12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="13">
         <v>4</v>
       </c>
       <c r="C27" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" ht="20.05" customHeight="1">
+    <row r="28" ht="116.05" customHeight="1">
       <c r="A28" t="s" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="13">
         <v>4</v>
       </c>
       <c r="C28" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" ht="32.05" customHeight="1">
+    <row r="29" ht="116.05" customHeight="1">
       <c r="A29" t="s" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="13">
         <v>4</v>
       </c>
       <c r="C29" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" ht="68.05" customHeight="1">
+    <row r="30" ht="80.05" customHeight="1">
       <c r="A30" t="s" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="13">
         <v>4</v>
       </c>
       <c r="C30" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" ht="80.05" customHeight="1">
+    <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="13">
         <v>4</v>
       </c>
       <c r="C31" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" ht="56.05" customHeight="1">
-      <c r="A32" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="B32" s="13">
-        <v>4</v>
-      </c>
-      <c r="C32" s="14">
-        <v>3</v>
-      </c>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" ht="56.05" customHeight="1">
-      <c r="A33" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="B33" s="13">
-        <v>4</v>
-      </c>
-      <c r="C33" s="14">
-        <v>3</v>
-      </c>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" ht="116.05" customHeight="1">
-      <c r="A34" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="B34" s="13">
-        <v>4</v>
-      </c>
-      <c r="C34" s="14">
-        <v>3</v>
-      </c>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" ht="116.05" customHeight="1">
-      <c r="A35" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="B35" s="13">
-        <v>4</v>
-      </c>
-      <c r="C35" s="14">
-        <v>4</v>
-      </c>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" ht="80.05" customHeight="1">
-      <c r="A36" t="s" s="12">
-        <v>38</v>
-      </c>
-      <c r="B36" s="13">
-        <v>4</v>
-      </c>
-      <c r="C36" s="14">
-        <v>4</v>
-      </c>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/43.xlsx
+++ b/story_xlsx_files/43.xlsx
@@ -333,7 +333,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -343,7 +343,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -355,9 +355,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -365,9 +362,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -379,13 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1474,13 +1462,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1514,487 +1508,474 @@
       <c r="D2" s="6">
         <v>43</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" ht="128.25" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="A3" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" ht="92.05" customHeight="1">
-      <c r="A4" t="s" s="12">
+      <c r="A4" t="s" s="10">
         <v>6</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" ht="80.05" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13">
+      <c r="A5" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" ht="80.05" customHeight="1">
-      <c r="A6" t="s" s="12">
-        <v>7</v>
-      </c>
-      <c r="B6" s="13">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" ht="128.05" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" ht="128.05" customHeight="1">
-      <c r="A7" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="B7" s="13">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" ht="80.05" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" ht="80.05" customHeight="1">
-      <c r="A8" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="C8" s="14">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" ht="44.05" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" ht="44.05" customHeight="1">
-      <c r="A9" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="B9" s="13">
+      <c r="C8" s="12">
         <v>2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="80.05" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="B9" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" ht="80.05" customHeight="1">
-      <c r="A10" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="B10" s="13">
+      <c r="C9" s="12">
         <v>2</v>
       </c>
-      <c r="C10" s="14">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" ht="32.05" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" ht="32.05" customHeight="1">
-      <c r="A11" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="B11" s="13">
+      <c r="C10" s="12">
         <v>2</v>
       </c>
-      <c r="C11" s="14">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" ht="56.05" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B11" s="11">
         <v>2</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" ht="56.05" customHeight="1">
-      <c r="A12" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="B12" s="13">
+      <c r="C11" s="12">
         <v>2</v>
       </c>
-      <c r="C12" s="14">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" ht="152.05" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="B12" s="11">
         <v>2</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" ht="152.05" customHeight="1">
-      <c r="A13" t="s" s="12">
-        <v>14</v>
-      </c>
-      <c r="B13" s="13">
+      <c r="C12" s="12">
         <v>2</v>
       </c>
-      <c r="C13" s="14">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" ht="116.05" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11">
+        <v>3</v>
+      </c>
+      <c r="C13" s="12">
         <v>2</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" ht="116.05" customHeight="1">
-      <c r="A14" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" ht="92.05" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="B14" s="11">
         <v>3</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <v>2</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" ht="92.05" customHeight="1">
-      <c r="A15" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="B15" s="13">
+      <c r="A15" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="B15" s="11">
         <v>3</v>
       </c>
-      <c r="C15" s="14">
-        <v>2</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" ht="92.05" customHeight="1">
-      <c r="A16" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="B16" s="13">
+      <c r="C15" s="12">
         <v>3</v>
       </c>
-      <c r="C16" s="14">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" ht="104.05" customHeight="1">
+      <c r="A16" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="B16" s="11">
         <v>3</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" ht="104.05" customHeight="1">
-      <c r="A17" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="B17" s="13">
+      <c r="C16" s="12">
         <v>3</v>
       </c>
-      <c r="C17" s="14">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" ht="80.05" customHeight="1">
+      <c r="A17" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="B17" s="11">
         <v>3</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" ht="80.05" customHeight="1">
-      <c r="A18" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="B18" s="13">
+      <c r="C17" s="12">
         <v>3</v>
       </c>
-      <c r="C18" s="14">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" ht="44.05" customHeight="1">
+      <c r="A18" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="B18" s="11">
         <v>3</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="C18" s="12">
+        <v>3</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" ht="44.05" customHeight="1">
-      <c r="A19" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="B19" s="13">
+      <c r="A19" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="B19" s="11">
+        <v>4</v>
+      </c>
+      <c r="C19" s="12">
         <v>3</v>
       </c>
-      <c r="C19" s="14">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" ht="116.05" customHeight="1">
+      <c r="A20" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="B20" s="11">
+        <v>4</v>
+      </c>
+      <c r="C20" s="12">
         <v>3</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" ht="44.05" customHeight="1">
-      <c r="A20" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="B20" s="13">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="B21" s="11">
         <v>4</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C21" s="12">
         <v>3</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" ht="116.05" customHeight="1">
-      <c r="A21" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="B21" s="13">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" ht="32.05" customHeight="1">
+      <c r="A22" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="B22" s="11">
         <v>4</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C22" s="12">
         <v>3</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="12">
-        <v>23</v>
-      </c>
-      <c r="B22" s="13">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" ht="68.05" customHeight="1">
+      <c r="A23" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="B23" s="11">
         <v>4</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C23" s="12">
         <v>3</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" ht="32.05" customHeight="1">
-      <c r="A23" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="B23" s="13">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" ht="80.05" customHeight="1">
+      <c r="A24" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="B24" s="11">
         <v>4</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C24" s="12">
         <v>3</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" ht="68.05" customHeight="1">
-      <c r="A24" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="B24" s="13">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" ht="56.05" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="B25" s="11">
         <v>4</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C25" s="12">
         <v>3</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" ht="80.05" customHeight="1">
-      <c r="A25" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="B25" s="13">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" ht="56.05" customHeight="1">
+      <c r="A26" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="B26" s="11">
         <v>4</v>
       </c>
-      <c r="C25" s="14">
-        <v>3</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" ht="56.05" customHeight="1">
-      <c r="A26" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="B26" s="13">
+      <c r="C26" s="12">
         <v>4</v>
       </c>
-      <c r="C26" s="14">
-        <v>3</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" ht="56.05" customHeight="1">
-      <c r="A27" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="B27" s="13">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" ht="116.05" customHeight="1">
+      <c r="A27" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="B27" s="11">
         <v>4</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="12">
         <v>4</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" ht="116.05" customHeight="1">
-      <c r="A28" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="B28" s="13">
+      <c r="A28" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="B28" s="11">
         <v>4</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="12">
         <v>4</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" ht="116.05" customHeight="1">
-      <c r="A29" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="B29" s="13">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" ht="80.05" customHeight="1">
+      <c r="A29" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="B29" s="11">
         <v>4</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="12">
         <v>4</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" ht="80.05" customHeight="1">
-      <c r="A30" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="B30" s="13">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="B30" s="11">
         <v>4</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="12">
         <v>4</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="B31" s="13">
-        <v>4</v>
-      </c>
-      <c r="C31" s="14">
-        <v>4</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/43.xlsx
+++ b/story_xlsx_files/43.xlsx
@@ -53,16 +53,16 @@
     <t xml:space="preserve">“Unlucky family,” she responded as she shook her head. </t>
   </si>
   <si>
-    <t>They continued to chat as they picked out a few last-minute groceries.</t>
-  </si>
-  <si>
-    <t>Simon helped Carina select the best ribs and his personal favorite barbecue sauce, and she helped him gather red  peppers and spices for a vegetable kabob she recommended.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the checkout area, there were there lines open and they went to aisle 8. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carina and Simon made jokes about the magazine covers waiting in line and they were laughing so hard their stomachs hurt. </t>
+    <t>They chatted as they picked out a few last-minute groceries.</t>
+  </si>
+  <si>
+    <t>Simon helped Carina select the best ribs and his personal favorite barbecue sauce, and she helped him choose red  peppers and spices for a vegetable kabob she recommended.</t>
+  </si>
+  <si>
+    <t>In the checkout area, there were three lines open and they went to the one labeled “8.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carina and Simon made jokes about the magazine covers while waiting in line and they were laughing so hard their stomachs hurt. </t>
   </si>
   <si>
     <t>Simon suddenly got serious and asked Carina, “Would you like to go out to dinner with me?</t>
@@ -74,7 +74,7 @@
     <t>There are a lot of great places around there, and it’s really nice during the summer.”</t>
   </si>
   <si>
-    <t>Carina smiled, “I’d love to: that sounds great!”</t>
+    <t>Carina smiled, “I’d love to- that sounds great!”</t>
   </si>
   <si>
     <t>The cashier scanned Carina’s groceries.</t>
@@ -98,7 +98,7 @@
     <t>The total came to $52, and he paid with his credit card.</t>
   </si>
   <si>
-    <t xml:space="preserve">Seeing that it was 4:30 pm on her phone, Carina gasped because she realized she was late for her own barbecue. </t>
+    <t xml:space="preserve">Seeing that it was 4:30 PM on her phone, Carina gasped because she realized she was late for her own barbecue. </t>
   </si>
   <si>
     <t xml:space="preserve">Carina thanked Simon and took her groceries and ran out the door. </t>
@@ -333,7 +333,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -343,7 +343,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -355,6 +355,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -362,6 +365,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -373,7 +379,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1468,13 +1480,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1508,474 +1514,474 @@
       <c r="D2" s="6">
         <v>43</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="128.25" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" ht="92.05" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="A4" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="14">
         <v>1</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" ht="80.05" customHeight="1">
-      <c r="A5" t="s" s="10">
+      <c r="A5" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="14">
         <v>1</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" ht="128.05" customHeight="1">
-      <c r="A6" t="s" s="10">
+      <c r="A6" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="14">
         <v>1</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" ht="80.05" customHeight="1">
-      <c r="A7" t="s" s="10">
+      <c r="A7" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="14">
         <v>2</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" ht="44.05" customHeight="1">
-      <c r="A8" t="s" s="10">
+      <c r="A8" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="14">
         <v>2</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" ht="80.05" customHeight="1">
-      <c r="A9" t="s" s="10">
+      <c r="A9" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="13">
         <v>2</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="14">
         <v>2</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" ht="32.05" customHeight="1">
-      <c r="A10" t="s" s="10">
+      <c r="A10" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="13">
         <v>2</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="14">
         <v>2</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" ht="56.05" customHeight="1">
-      <c r="A11" t="s" s="10">
+      <c r="A11" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="13">
         <v>2</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="14">
         <v>2</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" ht="152.05" customHeight="1">
-      <c r="A12" t="s" s="10">
+      <c r="A12" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="13">
         <v>2</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="14">
         <v>2</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" ht="116.05" customHeight="1">
-      <c r="A13" t="s" s="10">
+      <c r="A13" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="13">
         <v>3</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="14">
         <v>2</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" ht="92.05" customHeight="1">
-      <c r="A14" t="s" s="10">
+      <c r="A14" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="13">
         <v>3</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="14">
         <v>2</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" ht="92.05" customHeight="1">
-      <c r="A15" t="s" s="10">
+      <c r="A15" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="13">
         <v>3</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="14">
         <v>3</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" ht="104.05" customHeight="1">
-      <c r="A16" t="s" s="10">
+      <c r="A16" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="13">
         <v>3</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="14">
         <v>3</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" ht="80.05" customHeight="1">
-      <c r="A17" t="s" s="10">
+      <c r="A17" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="13">
         <v>3</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="14">
         <v>3</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" ht="44.05" customHeight="1">
-      <c r="A18" t="s" s="10">
+      <c r="A18" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="13">
         <v>3</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="14">
         <v>3</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" ht="44.05" customHeight="1">
-      <c r="A19" t="s" s="10">
+      <c r="A19" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="13">
         <v>4</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="14">
         <v>3</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" ht="116.05" customHeight="1">
-      <c r="A20" t="s" s="10">
+      <c r="A20" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="13">
         <v>4</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="14">
         <v>3</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="10">
+      <c r="A21" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="13">
         <v>4</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="14">
         <v>3</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" ht="32.05" customHeight="1">
-      <c r="A22" t="s" s="10">
+      <c r="A22" t="s" s="12">
         <v>24</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="13">
         <v>4</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="14">
         <v>3</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" ht="68.05" customHeight="1">
-      <c r="A23" t="s" s="10">
+      <c r="A23" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="13">
         <v>4</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="14">
         <v>3</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" ht="80.05" customHeight="1">
-      <c r="A24" t="s" s="10">
+      <c r="A24" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="13">
         <v>4</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="14">
         <v>3</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" ht="56.05" customHeight="1">
-      <c r="A25" t="s" s="10">
+      <c r="A25" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="13">
         <v>4</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="14">
         <v>3</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" ht="56.05" customHeight="1">
-      <c r="A26" t="s" s="10">
+      <c r="A26" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="13">
         <v>4</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="14">
         <v>4</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" ht="116.05" customHeight="1">
-      <c r="A27" t="s" s="10">
+      <c r="A27" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="13">
         <v>4</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="14">
         <v>4</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" ht="116.05" customHeight="1">
-      <c r="A28" t="s" s="10">
+      <c r="A28" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="13">
         <v>4</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="14">
         <v>4</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" ht="80.05" customHeight="1">
-      <c r="A29" t="s" s="10">
+      <c r="A29" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="13">
         <v>4</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="14">
         <v>4</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="10">
+      <c r="A30" t="s" s="12">
         <v>32</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="13">
         <v>4</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="14">
         <v>4</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/43.xlsx
+++ b/story_xlsx_files/43.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>storyText</t>
   </si>
@@ -56,16 +56,16 @@
     <t>They chatted as they picked out a few last-minute groceries.</t>
   </si>
   <si>
-    <t>Simon helped Carina select the best ribs and his personal favorite barbecue sauce, and she helped him choose red  peppers and spices for a vegetable kabob she recommended.</t>
-  </si>
-  <si>
-    <t>In the checkout area, there were three lines open and they went to the one labeled “8.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carina and Simon made jokes about the magazine covers while waiting in line and they were laughing so hard their stomachs hurt. </t>
-  </si>
-  <si>
-    <t>Simon suddenly got serious and asked Carina, “Would you like to go out to dinner with me?</t>
+    <t>Simon helped Carina select the best ribs and his personal favorite barbecue sauce, and she helped him choose red peppers and spices for a vegetable kabob she recommended.</t>
+  </si>
+  <si>
+    <t>In the checkout area, there were three lines open, and they went to the one labeled “8.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carina and Simon made jokes about the magazine covers while waiting in line, and they were laughing so hard their stomachs hurt. </t>
+  </si>
+  <si>
+    <t>Simon turned to face Carina and, while looking at her straight in the eyes, asked, “Would you like to go out to dinner with me?</t>
   </si>
   <si>
     <t>Next Saturday we could tour around Harvard Square and get something to eat.</t>
@@ -101,16 +101,13 @@
     <t xml:space="preserve">Seeing that it was 4:30 PM on her phone, Carina gasped because she realized she was late for her own barbecue. </t>
   </si>
   <si>
-    <t xml:space="preserve">Carina thanked Simon and took her groceries and ran out the door. </t>
-  </si>
-  <si>
-    <t>The cashier and Simon looked at each other in astonishment.</t>
+    <t xml:space="preserve">Carina thanked Simon and took her groceries and ran. </t>
   </si>
   <si>
     <t>“I hope her guests aren’t hungry,” the cashier remarked.</t>
   </si>
   <si>
-    <t xml:space="preserve">Simon just chuckled. </t>
+    <t xml:space="preserve">Simon was thoroughly charmed and barely heard the comment as he watched her go. </t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1471,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1893,7 +1890,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" ht="116.05" customHeight="1">
+    <row r="28" ht="80.05" customHeight="1">
       <c r="A28" t="s" s="12">
         <v>30</v>
       </c>
@@ -1908,7 +1905,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" ht="80.05" customHeight="1">
+    <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="12">
         <v>31</v>
       </c>
@@ -1924,15 +1921,9 @@
       <c r="G29" s="15"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="B30" s="13">
-        <v>4</v>
-      </c>
-      <c r="C30" s="14">
-        <v>4</v>
-      </c>
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -1974,15 +1965,6 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/43.xlsx
+++ b/story_xlsx_files/43.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>storyText</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Carina and Simon, both distracted in thought, nearly ran into each other as they walked into the grocery store. </t>
   </si>
   <si>
-    <t xml:space="preserve">She nearly dropped the keys she was holding. </t>
+    <t xml:space="preserve">She almost dropped the keys she was holding. </t>
   </si>
   <si>
     <t xml:space="preserve">The store they had entered looked like a warehouse, with high, black ceilings, industrial lights, and large packages of food. </t>
@@ -74,7 +74,10 @@
     <t>There are a lot of great places around there, and it’s really nice during the summer.”</t>
   </si>
   <si>
-    <t>Carina smiled, “I’d love to- that sounds great!”</t>
+    <t>Carina smiled, “I’d love to.</t>
+  </si>
+  <si>
+    <t>That sounds great!”</t>
   </si>
   <si>
     <t>The cashier scanned Carina’s groceries.</t>
@@ -1471,7 +1474,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1760,7 +1763,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="14">
         <v>3</v>
@@ -1770,7 +1773,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" ht="116.05" customHeight="1">
+    <row r="20" ht="44.05" customHeight="1">
       <c r="A20" t="s" s="12">
         <v>22</v>
       </c>
@@ -1785,7 +1788,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
+    <row r="21" ht="116.05" customHeight="1">
       <c r="A21" t="s" s="12">
         <v>23</v>
       </c>
@@ -1800,7 +1803,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" ht="32.05" customHeight="1">
+    <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="12">
         <v>24</v>
       </c>
@@ -1815,7 +1818,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" ht="68.05" customHeight="1">
+    <row r="23" ht="32.05" customHeight="1">
       <c r="A23" t="s" s="12">
         <v>25</v>
       </c>
@@ -1830,7 +1833,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" ht="80.05" customHeight="1">
+    <row r="24" ht="68.05" customHeight="1">
       <c r="A24" t="s" s="12">
         <v>26</v>
       </c>
@@ -1845,7 +1848,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" ht="56.05" customHeight="1">
+    <row r="25" ht="80.05" customHeight="1">
       <c r="A25" t="s" s="12">
         <v>27</v>
       </c>
@@ -1868,14 +1871,14 @@
         <v>4</v>
       </c>
       <c r="C26" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" ht="116.05" customHeight="1">
+    <row r="27" ht="56.05" customHeight="1">
       <c r="A27" t="s" s="12">
         <v>29</v>
       </c>
@@ -1890,7 +1893,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" ht="80.05" customHeight="1">
+    <row r="28" ht="116.05" customHeight="1">
       <c r="A28" t="s" s="12">
         <v>30</v>
       </c>
@@ -1905,7 +1908,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" ht="20.05" customHeight="1">
+    <row r="29" ht="80.05" customHeight="1">
       <c r="A29" t="s" s="12">
         <v>31</v>
       </c>
@@ -1921,9 +1924,15 @@
       <c r="G29" s="15"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="15"/>
+      <c r="A30" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="B30" s="13">
+        <v>4</v>
+      </c>
+      <c r="C30" s="14">
+        <v>4</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -1965,6 +1974,15 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
